--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/03.BaoGiaBH/BG201102_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/03.BaoGiaBH/BG201102_AnhTuanBG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -147,13 +147,16 @@
   </si>
   <si>
     <t>ĐC: 233-234, Lô 6, Khu ĐTM Đại Kim, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>Note đỏ thiết bị khách không sửa chữa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +255,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +277,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -356,19 +373,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -605,19 +609,6 @@
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -657,7 +648,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -667,13 +658,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -685,91 +670,19 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -777,9 +690,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,102 +698,195 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,7 +1246,7 @@
   <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1267,501 +1270,503 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="26" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="26" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="30" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="31" t="s">
         <v>10</v>
       </c>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>865904020083843</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="46">
         <v>1</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="77">
         <v>120000</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="77">
         <v>120000</v>
       </c>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="78">
         <v>2</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="78">
         <v>865904020096217</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="46">
         <v>1</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="77">
         <v>30000</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="77">
         <v>30000</v>
       </c>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="46">
         <v>1</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="79">
         <v>110000</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="79">
         <v>110000</v>
       </c>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="80">
         <v>3</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="80" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="85">
         <v>1</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="86">
         <v>250000</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="86">
         <v>250000</v>
       </c>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H17" s="85">
         <v>1</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="87">
         <v>200000</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="87">
         <v>200000</v>
       </c>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85">
-        <f>SUM(J13:J17)</f>
-        <v>710000</v>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="88">
+        <f>SUM(J13:J15)</f>
+        <v>260000</v>
       </c>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="34"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="37"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="72" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="73"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="73"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="73"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="76"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="71"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="81"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1825,7 +1830,17 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B20:D21"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="E1:J2"/>
@@ -1842,15 +1857,6 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
